--- a/data/GreatLink/GreatLink Dynamic Balanced Portfolio.xlsx
+++ b/data/GreatLink/GreatLink Dynamic Balanced Portfolio.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="PriceHistory" sheetId="1" r:id="GemRid350913"/>
+    <sheet name="PriceHistory" sheetId="1" r:id="GemRid203533"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Price Date</t>
   </si>
@@ -26,13 +26,70 @@
     <t>Currency - Unit Level</t>
   </si>
   <si>
+    <t>04/11/2025</t>
+  </si>
+  <si>
+    <t>0.952</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>03/11/2025</t>
+  </si>
+  <si>
+    <t>0.959</t>
+  </si>
+  <si>
+    <t>31/10/2025</t>
+  </si>
+  <si>
+    <t>0.956</t>
+  </si>
+  <si>
+    <t>30/10/2025</t>
+  </si>
+  <si>
+    <t>0.955</t>
+  </si>
+  <si>
+    <t>29/10/2025</t>
+  </si>
+  <si>
+    <t>0.958</t>
+  </si>
+  <si>
+    <t>28/10/2025</t>
+  </si>
+  <si>
+    <t>27/10/2025</t>
+  </si>
+  <si>
+    <t>24/10/2025</t>
+  </si>
+  <si>
+    <t>23/10/2025</t>
+  </si>
+  <si>
+    <t>0.949</t>
+  </si>
+  <si>
+    <t>22/10/2025</t>
+  </si>
+  <si>
+    <t>0.946</t>
+  </si>
+  <si>
+    <t>21/10/2025</t>
+  </si>
+  <si>
+    <t>0.948</t>
+  </si>
+  <si>
+    <t>17/10/2025</t>
+  </si>
+  <si>
     <t>16/10/2025</t>
-  </si>
-  <si>
-    <t>0.949</t>
-  </si>
-  <si>
-    <t>SGD</t>
   </si>
   <si>
     <t>15/10/2025</t>
@@ -400,6 +457,138 @@
         <v>5</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="1.8" right="1.8" top="1.8999999999999999" bottom="1.8999999999999999" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" scale="100" paperSize="0" firstPageNumber="1" fitToWidth="0" fitToHeight="0" horizontalDpi="0" verticalDpi="0" copies="1"/>

--- a/data/GreatLink/GreatLink Dynamic Balanced Portfolio.xlsx
+++ b/data/GreatLink/GreatLink Dynamic Balanced Portfolio.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="PriceHistory" sheetId="1" r:id="GemRid203533"/>
+    <sheet name="PriceHistory" sheetId="1" r:id="GemRid658203"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>Price Date</t>
   </si>
@@ -26,15 +26,114 @@
     <t>Currency - Unit Level</t>
   </si>
   <si>
+    <t>03/12/2025</t>
+  </si>
+  <si>
+    <t>0.944</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>02/12/2025</t>
+  </si>
+  <si>
+    <t>01/12/2025</t>
+  </si>
+  <si>
+    <t>0.941</t>
+  </si>
+  <si>
+    <t>28/11/2025</t>
+  </si>
+  <si>
+    <t>27/11/2025</t>
+  </si>
+  <si>
+    <t>0.943</t>
+  </si>
+  <si>
+    <t>26/11/2025</t>
+  </si>
+  <si>
+    <t>25/11/2025</t>
+  </si>
+  <si>
+    <t>0.940</t>
+  </si>
+  <si>
+    <t>24/11/2025</t>
+  </si>
+  <si>
+    <t>0.937</t>
+  </si>
+  <si>
+    <t>21/11/2025</t>
+  </si>
+  <si>
+    <t>0.932</t>
+  </si>
+  <si>
+    <t>20/11/2025</t>
+  </si>
+  <si>
+    <t>0.931</t>
+  </si>
+  <si>
+    <t>19/11/2025</t>
+  </si>
+  <si>
+    <t>0.935</t>
+  </si>
+  <si>
+    <t>18/11/2025</t>
+  </si>
+  <si>
+    <t>0.933</t>
+  </si>
+  <si>
+    <t>17/11/2025</t>
+  </si>
+  <si>
+    <t>14/11/2025</t>
+  </si>
+  <si>
+    <t>13/11/2025</t>
+  </si>
+  <si>
+    <t>0.948</t>
+  </si>
+  <si>
+    <t>12/11/2025</t>
+  </si>
+  <si>
+    <t>0.955</t>
+  </si>
+  <si>
+    <t>11/11/2025</t>
+  </si>
+  <si>
+    <t>0.953</t>
+  </si>
+  <si>
+    <t>10/11/2025</t>
+  </si>
+  <si>
+    <t>07/11/2025</t>
+  </si>
+  <si>
+    <t>06/11/2025</t>
+  </si>
+  <si>
+    <t>05/11/2025</t>
+  </si>
+  <si>
+    <t>0.952</t>
+  </si>
+  <si>
     <t>04/11/2025</t>
   </si>
   <si>
-    <t>0.952</t>
-  </si>
-  <si>
-    <t>SGD</t>
-  </si>
-  <si>
     <t>03/11/2025</t>
   </si>
   <si>
@@ -50,9 +149,6 @@
     <t>30/10/2025</t>
   </si>
   <si>
-    <t>0.955</t>
-  </si>
-  <si>
     <t>29/10/2025</t>
   </si>
   <si>
@@ -81,9 +177,6 @@
   </si>
   <si>
     <t>21/10/2025</t>
-  </si>
-  <si>
-    <t>0.948</t>
   </si>
   <si>
     <t>17/10/2025</t>
@@ -451,7 +544,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -459,10 +552,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -470,10 +563,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -481,10 +574,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -492,10 +585,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -503,10 +596,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -514,10 +607,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
         <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>4</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -561,7 +654,7 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -569,10 +662,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -580,12 +673,243 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>54</v>
+      </c>
+      <c r="B34" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>55</v>
+      </c>
+      <c r="B35" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>56</v>
+      </c>
+      <c r="B36" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36" t="s">
         <v>5</v>
       </c>
     </row>

--- a/data/GreatLink/GreatLink Dynamic Balanced Portfolio.xlsx
+++ b/data/GreatLink/GreatLink Dynamic Balanced Portfolio.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="PriceHistory" sheetId="1" r:id="GemRid658203"/>
+    <sheet name="PriceHistory" sheetId="1" r:id="GemRid248852"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
   <si>
     <t>Price Date</t>
   </si>
@@ -26,24 +26,123 @@
     <t>Currency - Unit Level</t>
   </si>
   <si>
+    <t>07/01/2026</t>
+  </si>
+  <si>
+    <t>0.954</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>06/01/2026</t>
+  </si>
+  <si>
+    <t>05/01/2026</t>
+  </si>
+  <si>
+    <t>0.952</t>
+  </si>
+  <si>
+    <t>02/01/2026</t>
+  </si>
+  <si>
+    <t>0.947</t>
+  </si>
+  <si>
+    <t>31/12/2025</t>
+  </si>
+  <si>
+    <t>0.944</t>
+  </si>
+  <si>
+    <t>30/12/2025</t>
+  </si>
+  <si>
+    <t>0.946</t>
+  </si>
+  <si>
+    <t>29/12/2025</t>
+  </si>
+  <si>
+    <t>26/12/2025</t>
+  </si>
+  <si>
+    <t>24/12/2025</t>
+  </si>
+  <si>
+    <t>23/12/2025</t>
+  </si>
+  <si>
+    <t>0.945</t>
+  </si>
+  <si>
+    <t>22/12/2025</t>
+  </si>
+  <si>
+    <t>19/12/2025</t>
+  </si>
+  <si>
+    <t>0.942</t>
+  </si>
+  <si>
+    <t>18/12/2025</t>
+  </si>
+  <si>
+    <t>0.936</t>
+  </si>
+  <si>
+    <t>17/12/2025</t>
+  </si>
+  <si>
+    <t>0.933</t>
+  </si>
+  <si>
+    <t>16/12/2025</t>
+  </si>
+  <si>
+    <t>0.937</t>
+  </si>
+  <si>
+    <t>15/12/2025</t>
+  </si>
+  <si>
+    <t>0.939</t>
+  </si>
+  <si>
+    <t>12/12/2025</t>
+  </si>
+  <si>
+    <t>0.941</t>
+  </si>
+  <si>
+    <t>11/12/2025</t>
+  </si>
+  <si>
+    <t>10/12/2025</t>
+  </si>
+  <si>
+    <t>09/12/2025</t>
+  </si>
+  <si>
+    <t>08/12/2025</t>
+  </si>
+  <si>
+    <t>05/12/2025</t>
+  </si>
+  <si>
+    <t>04/12/2025</t>
+  </si>
+  <si>
     <t>03/12/2025</t>
   </si>
   <si>
-    <t>0.944</t>
-  </si>
-  <si>
-    <t>SGD</t>
-  </si>
-  <si>
     <t>02/12/2025</t>
   </si>
   <si>
     <t>01/12/2025</t>
   </si>
   <si>
-    <t>0.941</t>
-  </si>
-  <si>
     <t>28/11/2025</t>
   </si>
   <si>
@@ -65,9 +164,6 @@
     <t>24/11/2025</t>
   </si>
   <si>
-    <t>0.937</t>
-  </si>
-  <si>
     <t>21/11/2025</t>
   </si>
   <si>
@@ -89,9 +185,6 @@
     <t>18/11/2025</t>
   </si>
   <si>
-    <t>0.933</t>
-  </si>
-  <si>
     <t>17/11/2025</t>
   </si>
   <si>
@@ -128,9 +221,6 @@
     <t>05/11/2025</t>
   </si>
   <si>
-    <t>0.952</t>
-  </si>
-  <si>
     <t>04/11/2025</t>
   </si>
   <si>
@@ -171,9 +261,6 @@
   </si>
   <si>
     <t>22/10/2025</t>
-  </si>
-  <si>
-    <t>0.946</t>
   </si>
   <si>
     <t>21/10/2025</t>
@@ -566,7 +653,7 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -574,10 +661,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -585,10 +672,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -596,7 +683,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
@@ -607,10 +694,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -621,7 +708,7 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -629,10 +716,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
         <v>19</v>
-      </c>
-      <c r="B11" t="s">
-        <v>20</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -640,10 +727,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -651,10 +738,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -662,10 +749,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -673,10 +760,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s">
         <v>26</v>
-      </c>
-      <c r="B15" t="s">
-        <v>11</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -720,7 +807,7 @@
         <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -731,7 +818,7 @@
         <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -742,7 +829,7 @@
         <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -753,7 +840,7 @@
         <v>36</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -761,10 +848,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -772,10 +859,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -783,10 +870,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B25" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -794,10 +881,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B26" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -805,10 +892,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B27" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -816,10 +903,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B28" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -827,10 +914,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B29" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -838,10 +925,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B30" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -849,10 +936,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B31" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -860,10 +947,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B32" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -871,10 +958,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B33" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -882,10 +969,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B34" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -893,10 +980,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B35" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -904,12 +991,265 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
+        <v>55</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
         <v>56</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B37" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
         <v>57</v>
       </c>
-      <c r="C36" t="s">
+      <c r="B38" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>58</v>
+      </c>
+      <c r="B39" t="s">
+        <v>59</v>
+      </c>
+      <c r="C39" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>60</v>
+      </c>
+      <c r="B40" t="s">
+        <v>61</v>
+      </c>
+      <c r="C40" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>62</v>
+      </c>
+      <c r="B41" t="s">
+        <v>63</v>
+      </c>
+      <c r="C41" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>64</v>
+      </c>
+      <c r="B42" t="s">
+        <v>63</v>
+      </c>
+      <c r="C42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>65</v>
+      </c>
+      <c r="B43" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>66</v>
+      </c>
+      <c r="B44" t="s">
+        <v>59</v>
+      </c>
+      <c r="C44" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>67</v>
+      </c>
+      <c r="B45" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>68</v>
+      </c>
+      <c r="B46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>69</v>
+      </c>
+      <c r="B47" t="s">
+        <v>70</v>
+      </c>
+      <c r="C47" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>71</v>
+      </c>
+      <c r="B48" t="s">
+        <v>72</v>
+      </c>
+      <c r="C48" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>73</v>
+      </c>
+      <c r="B49" t="s">
+        <v>61</v>
+      </c>
+      <c r="C49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>74</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>76</v>
+      </c>
+      <c r="B51" t="s">
+        <v>75</v>
+      </c>
+      <c r="C51" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>77</v>
+      </c>
+      <c r="B52" t="s">
+        <v>70</v>
+      </c>
+      <c r="C52" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>78</v>
+      </c>
+      <c r="B53" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>79</v>
+      </c>
+      <c r="B54" t="s">
+        <v>80</v>
+      </c>
+      <c r="C54" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>81</v>
+      </c>
+      <c r="B55" t="s">
+        <v>14</v>
+      </c>
+      <c r="C55" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>82</v>
+      </c>
+      <c r="B56" t="s">
+        <v>59</v>
+      </c>
+      <c r="C56" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>83</v>
+      </c>
+      <c r="B57" t="s">
+        <v>80</v>
+      </c>
+      <c r="C57" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>84</v>
+      </c>
+      <c r="B58" t="s">
+        <v>80</v>
+      </c>
+      <c r="C58" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>85</v>
+      </c>
+      <c r="B59" t="s">
+        <v>86</v>
+      </c>
+      <c r="C59" t="s">
         <v>5</v>
       </c>
     </row>

--- a/data/GreatLink/GreatLink Dynamic Balanced Portfolio.xlsx
+++ b/data/GreatLink/GreatLink Dynamic Balanced Portfolio.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="PriceHistory" sheetId="1" r:id="GemRid248852"/>
+    <sheet name="PriceHistory" sheetId="1" r:id="GemRid596733"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Price Date</t>
   </si>
@@ -26,30 +26,105 @@
     <t>Currency - Unit Level</t>
   </si>
   <si>
+    <t>02/02/2026</t>
+  </si>
+  <si>
+    <t>0.954</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>30/01/2026</t>
+  </si>
+  <si>
+    <t>0.952</t>
+  </si>
+  <si>
+    <t>29/01/2026</t>
+  </si>
+  <si>
+    <t>0.955</t>
+  </si>
+  <si>
+    <t>28/01/2026</t>
+  </si>
+  <si>
+    <t>27/01/2026</t>
+  </si>
+  <si>
+    <t>26/01/2026</t>
+  </si>
+  <si>
+    <t>23/01/2026</t>
+  </si>
+  <si>
+    <t>0.953</t>
+  </si>
+  <si>
+    <t>22/01/2026</t>
+  </si>
+  <si>
+    <t>21/01/2026</t>
+  </si>
+  <si>
+    <t>0.951</t>
+  </si>
+  <si>
+    <t>20/01/2026</t>
+  </si>
+  <si>
+    <t>0.947</t>
+  </si>
+  <si>
+    <t>19/01/2026</t>
+  </si>
+  <si>
+    <t>0.958</t>
+  </si>
+  <si>
+    <t>16/01/2026</t>
+  </si>
+  <si>
+    <t>0.960</t>
+  </si>
+  <si>
+    <t>15/01/2026</t>
+  </si>
+  <si>
+    <t>14/01/2026</t>
+  </si>
+  <si>
+    <t>13/01/2026</t>
+  </si>
+  <si>
+    <t>0.962</t>
+  </si>
+  <si>
+    <t>12/01/2026</t>
+  </si>
+  <si>
+    <t>09/01/2026</t>
+  </si>
+  <si>
+    <t>0.959</t>
+  </si>
+  <si>
+    <t>08/01/2026</t>
+  </si>
+  <si>
     <t>07/01/2026</t>
   </si>
   <si>
-    <t>0.954</t>
-  </si>
-  <si>
-    <t>SGD</t>
-  </si>
-  <si>
     <t>06/01/2026</t>
   </si>
   <si>
     <t>05/01/2026</t>
   </si>
   <si>
-    <t>0.952</t>
-  </si>
-  <si>
     <t>02/01/2026</t>
   </si>
   <si>
-    <t>0.947</t>
-  </si>
-  <si>
     <t>31/12/2025</t>
   </si>
   <si>
@@ -200,15 +275,9 @@
     <t>12/11/2025</t>
   </si>
   <si>
-    <t>0.955</t>
-  </si>
-  <si>
     <t>11/11/2025</t>
   </si>
   <si>
-    <t>0.953</t>
-  </si>
-  <si>
     <t>10/11/2025</t>
   </si>
   <si>
@@ -227,9 +296,6 @@
     <t>03/11/2025</t>
   </si>
   <si>
-    <t>0.959</t>
-  </si>
-  <si>
     <t>31/10/2025</t>
   </si>
   <si>
@@ -240,9 +306,6 @@
   </si>
   <si>
     <t>29/10/2025</t>
-  </si>
-  <si>
-    <t>0.958</t>
   </si>
   <si>
     <t>28/10/2025</t>
@@ -631,7 +694,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -639,10 +702,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -650,10 +713,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -664,7 +727,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -672,10 +735,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -683,7 +746,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
@@ -694,10 +757,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -705,10 +768,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
         <v>17</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -730,7 +793,7 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -738,10 +801,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -749,10 +812,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
         <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -763,7 +826,7 @@
         <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -771,10 +834,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s">
         <v>27</v>
-      </c>
-      <c r="B16" t="s">
-        <v>28</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -782,10 +845,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -793,10 +856,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -804,10 +867,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -815,10 +878,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -826,10 +889,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -837,10 +900,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -848,10 +911,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -859,10 +922,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B24" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -870,10 +933,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" t="s">
         <v>39</v>
-      </c>
-      <c r="B25" t="s">
-        <v>12</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -884,7 +947,7 @@
         <v>40</v>
       </c>
       <c r="B26" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -895,7 +958,7 @@
         <v>41</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -906,7 +969,7 @@
         <v>42</v>
       </c>
       <c r="B28" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -928,7 +991,7 @@
         <v>45</v>
       </c>
       <c r="B30" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -950,7 +1013,7 @@
         <v>48</v>
       </c>
       <c r="B32" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -958,10 +1021,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B33" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -969,10 +1032,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B34" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -980,10 +1043,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B35" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -991,10 +1054,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B36" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -1002,10 +1065,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B37" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -1013,10 +1076,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B38" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -1024,10 +1087,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B39" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -1035,10 +1098,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B40" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -1049,7 +1112,7 @@
         <v>62</v>
       </c>
       <c r="B41" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -1057,10 +1120,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B42" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -1068,10 +1131,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B43" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -1079,10 +1142,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B44" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -1090,10 +1153,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -1101,10 +1164,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -1112,10 +1175,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
+        <v>68</v>
+      </c>
+      <c r="B47" t="s">
         <v>69</v>
-      </c>
-      <c r="B47" t="s">
-        <v>70</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -1123,10 +1186,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B48" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -1134,10 +1197,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B49" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="C49" t="s">
         <v>5</v>
@@ -1145,10 +1208,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B50" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="C50" t="s">
         <v>5</v>
@@ -1156,7 +1219,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B51" t="s">
         <v>75</v>
@@ -1167,10 +1230,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
+        <v>76</v>
+      </c>
+      <c r="B52" t="s">
         <v>77</v>
-      </c>
-      <c r="B52" t="s">
-        <v>70</v>
       </c>
       <c r="C52" t="s">
         <v>5</v>
@@ -1181,7 +1244,7 @@
         <v>78</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>79</v>
       </c>
       <c r="C53" t="s">
         <v>5</v>
@@ -1189,10 +1252,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B54" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="C54" t="s">
         <v>5</v>
@@ -1203,7 +1266,7 @@
         <v>81</v>
       </c>
       <c r="B55" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="C55" t="s">
         <v>5</v>
@@ -1214,7 +1277,7 @@
         <v>82</v>
       </c>
       <c r="B56" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C56" t="s">
         <v>5</v>
@@ -1225,7 +1288,7 @@
         <v>83</v>
       </c>
       <c r="B57" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C57" t="s">
         <v>5</v>
@@ -1233,10 +1296,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B58" t="s">
-        <v>80</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
         <v>5</v>
@@ -1244,12 +1307,210 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B59" t="s">
-        <v>86</v>
+        <v>14</v>
       </c>
       <c r="C59" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>87</v>
+      </c>
+      <c r="B60" t="s">
+        <v>14</v>
+      </c>
+      <c r="C60" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>88</v>
+      </c>
+      <c r="B61" t="s">
+        <v>37</v>
+      </c>
+      <c r="C61" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>89</v>
+      </c>
+      <c r="B62" t="s">
+        <v>84</v>
+      </c>
+      <c r="C62" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>90</v>
+      </c>
+      <c r="B63" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>91</v>
+      </c>
+      <c r="B64" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>92</v>
+      </c>
+      <c r="B65" t="s">
+        <v>30</v>
+      </c>
+      <c r="C65" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>93</v>
+      </c>
+      <c r="B66" t="s">
+        <v>94</v>
+      </c>
+      <c r="C66" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>95</v>
+      </c>
+      <c r="B67" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>96</v>
+      </c>
+      <c r="B68" t="s">
+        <v>21</v>
+      </c>
+      <c r="C68" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>97</v>
+      </c>
+      <c r="B69" t="s">
+        <v>21</v>
+      </c>
+      <c r="C69" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>98</v>
+      </c>
+      <c r="B70" t="s">
+        <v>30</v>
+      </c>
+      <c r="C70" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>99</v>
+      </c>
+      <c r="B71" t="s">
+        <v>7</v>
+      </c>
+      <c r="C71" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>100</v>
+      </c>
+      <c r="B72" t="s">
+        <v>101</v>
+      </c>
+      <c r="C72" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>102</v>
+      </c>
+      <c r="B73" t="s">
+        <v>39</v>
+      </c>
+      <c r="C73" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>103</v>
+      </c>
+      <c r="B74" t="s">
+        <v>84</v>
+      </c>
+      <c r="C74" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>104</v>
+      </c>
+      <c r="B75" t="s">
+        <v>101</v>
+      </c>
+      <c r="C75" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>105</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>106</v>
+      </c>
+      <c r="B77" t="s">
+        <v>107</v>
+      </c>
+      <c r="C77" t="s">
         <v>5</v>
       </c>
     </row>
